--- a/Data/PageObjectsData_app.xlsx
+++ b/Data/PageObjectsData_app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Page_HomeGuide" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
   <si>
     <t>VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,442 +41,457 @@
     <t>GoBoys</t>
   </si>
   <si>
-    <t>com.yoho:id/home_ImageView_boysEntry</t>
-  </si>
-  <si>
     <t>GoGirls</t>
   </si>
   <si>
-    <t>com.yoho:id/home_ImageView_girlsEntry</t>
-  </si>
-  <si>
     <t>Login_username</t>
   </si>
   <si>
+    <t>XPATH</t>
+  </si>
+  <si>
+    <t>Login_password</t>
+  </si>
+  <si>
+    <t>Login_del_image</t>
+  </si>
+  <si>
+    <t>com.yoho:id/del_image</t>
+  </si>
+  <si>
+    <t>Login_loginbtn</t>
+  </si>
+  <si>
+    <t>com.yoho:id/loginbtn</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[@password="true"]</t>
+  </si>
+  <si>
+    <t>个人中心-登录/注册 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-退出按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女选择页-BOYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女选择页-GIRLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面-用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面-密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面-用户名右侧的X图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页面-登录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部菜单-首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-新品到着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/activity_setting_logout_textView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品到着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品到着-列表--任意商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/product_detail_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_detail_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页--加入购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/btn_pro_info_submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro_info_submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页--颜色尺码--确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/shop_cart_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页--购物车图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/tabMain_radioButton_shoppCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabMain_shoppCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabMain_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabMain_my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部菜单-购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/common_shoppingcart_ckb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingcart_Select_All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/right_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingcart_right_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--编辑 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--全选 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/common_shoppingcart_delete_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--删除 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingcart_delete_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/back_imgbtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingcart_back_imgbtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--左上角返回图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android:id/button1</t>
+  </si>
+  <si>
+    <t>shoppingcart_delete_confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--删除--确定 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/common_shoppingcart_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingcart_jiesuan_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--结算按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单--确认付款 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/make_sure_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmOrder_make_sure_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionBar_backBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/actionBar_imageView_backBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线支付页面--支付宝、微信选择--返回图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页--左上角返回 图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back_imgbtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品到着-列表--返回图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New_Products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/tabMain_radioButton_my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部菜单-我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/tabMain_radioButton_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/product_pre_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品到着-列表--重新加载 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading_failure_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/loading_failure_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页--选择 颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页--选择 尺码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tv_pro_info_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情页--颜色尺码--数量--默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageView[contains(@resource-id, "com.yoho:id/radio")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@resource-id, "com.yoho:id/radio")]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/tv_pro_info_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-待付款 图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoutBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/mine_textView_dfk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginAndRegisterBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/mine_textView_loginBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settingBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/mine_imageView_settingBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-设置图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-待付款列表--取消订单 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_item_cancel_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/order_item_cancel_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/dialog_confirm_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/back_imgbtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-待付款列表--返回 图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_mine_dfk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_back_imgbtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_dialog_confirm_btn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-待付款列表--取消订单--确定 按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingcart_gift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/gift_relativelayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--赠品 链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车--赠品--列表--赠品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingcart_gift_goods_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/gift_child_goods_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>//android.widget.EditText[@password="false"]</t>
-  </si>
-  <si>
-    <t>XPATH</t>
-  </si>
-  <si>
-    <t>Login_password</t>
-  </si>
-  <si>
-    <t>Login_del_image</t>
-  </si>
-  <si>
-    <t>com.yoho:id/del_image</t>
-  </si>
-  <si>
-    <t>Login_loginbtn</t>
-  </si>
-  <si>
-    <t>com.yoho:id/loginbtn</t>
-  </si>
-  <si>
-    <t>//android.widget.EditText[@password="true"]</t>
-  </si>
-  <si>
-    <t>个人中心-登录/注册 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-退出按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男女选择页-BOYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男女选择页-GIRLS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面-用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面-密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面-用户名右侧的X图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面-登录按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部菜单-首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页-新品到着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/activity_setting_logout_textView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品到着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品到着-列表--任意商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/product_detail_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_detail_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页--加入购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/btn_pro_info_submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pro_info_submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页--颜色尺码--确定按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/shop_cart_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页--购物车图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/tabMain_radioButton_shoppCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tabMain_shoppCard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tabMain_home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tabMain_my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部菜单-购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/common_shoppingcart_ckb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingcart_Select_All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/right_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingcart_right_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车--编辑 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车--全选 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/common_shoppingcart_delete_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车--删除 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingcart_delete_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/back_imgbtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingcart_back_imgbtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车--左上角返回图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android:id/button1</t>
-  </si>
-  <si>
-    <t>shoppingcart_delete_confirm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车--删除--确定 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/common_shoppingcart_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingcart_jiesuan_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车--结算按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认订单--确认付款 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/make_sure_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfirmOrder_make_sure_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionBar_backBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/actionBar_imageView_backBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线支付页面--支付宝、微信选择--返回图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页--左上角返回 图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>back_imgbtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品到着-列表--返回图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New_Products</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/tabMain_radioButton_my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部菜单-我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/tabMain_radioButton_home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/product_pre_img1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品到着-列表--重新加载 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading_failure_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/loading_failure_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页--选择 颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPATH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页--选择 尺码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tv_pro_info_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情页--颜色尺码--数量--默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.ImageView[contains(@resource-id, "com.yoho:id/radio")]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//android.widget.TextView[contains(@resource-id, "com.yoho:id/radio")]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/tv_pro_info_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-待付款 图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logoutBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/mine_textView_dfk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginAndRegisterBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/mine_textView_loginBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settingBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/mine_imageView_settingBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-设置图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-待付款列表--取消订单 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_item_cancel_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/order_item_cancel_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/dialog_confirm_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/back_imgbtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-待付款列表--返回 图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_mine_dfk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_back_imgbtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_dialog_confirm_btn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-待付款列表--取消订单--确定 按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingcart_gift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/gift_relativelayout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车--赠品 链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车--赠品--列表--赠品图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingcart_gift_goods_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.yoho:id/gift_child_goods_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageView[@index="2"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.yoho:id/ad_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页--浮层--关闭按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//android.widget.ImageView[@index="1"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,6 +576,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,7 +887,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -899,27 +917,27 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -956,105 +974,119 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1068,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,63 +1123,63 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1184,105 +1216,105 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1319,105 +1351,105 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1454,119 +1486,119 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1602,35 +1634,35 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
